--- a/static/files/cp.xlsx
+++ b/static/files/cp.xlsx
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">cp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
   </si>
 </sst>
 </file>
@@ -125,10 +119,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -145,33 +139,15 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>30000</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
+        <v>16000</v>
       </c>
     </row>
   </sheetData>
